--- a/Data/Electric(or)HybridVehicleRegistrationByCountry.xlsx
+++ b/Data/Electric(or)HybridVehicleRegistrationByCountry.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/96bc53f14345776c/Documents/3rd year/Introduction to AI/Group project 30/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/96bc53f14345776c/Documents/GitHub/EV_affect_on_emissions/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2905DE34-F120-4DDE-9FEC-CCCB70ABC7D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="54" documentId="8_{2905DE34-F120-4DDE-9FEC-CCCB70ABC7D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{98A6275A-A7E2-4557-B1E3-0F8E0B8D64A8}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{574D2366-16CB-44FC-813B-F7BB4ECA52CA}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="24">
   <si>
     <t>Year</t>
   </si>
@@ -83,6 +83,76 @@
   </si>
   <si>
     <t>https://www.statista.com/statistics/1009574/annual-number-of-electric-vehicles-registered-spain/</t>
+  </si>
+  <si>
+    <t>Russia</t>
+  </si>
+  <si>
+    <t>Probably not worth even using, only 6300 vehicles registered at the beginning of 2020, read that the countries infrastructure isn't great for EV's https://www.autostat.ru/news/42999/</t>
+  </si>
+  <si>
+    <t>^ However these numbers are beginning to grow, maybe worth looking into but I doubt it because we wouldn't have much data at all</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Japan </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NEW</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> registrations</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">each year, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NOT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> continuous</t>
+    </r>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>This data is for NEW registrations each year, however I have made an assumption as cars are new they will still be registered to make a suitable column.</t>
+  </si>
+  <si>
+    <t>Japan H+E</t>
   </si>
 </sst>
 </file>
@@ -92,7 +162,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot; &quot;General"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,6 +199,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -185,7 +270,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -206,6 +291,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -526,10 +614,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5749234D-D0EE-412A-A825-652FDE911B6D}">
-  <dimension ref="A1:L33"/>
+  <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -540,6 +628,8 @@
     <col min="7" max="7" width="9.77734375" customWidth="1"/>
     <col min="8" max="8" width="10" customWidth="1"/>
     <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.88671875" customWidth="1"/>
+    <col min="11" max="11" width="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
@@ -554,7 +644,9 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
+      <c r="J1" s="8" t="s">
+        <v>19</v>
+      </c>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
@@ -583,9 +675,15 @@
       <c r="H2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -614,9 +712,15 @@
       <c r="H3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="5"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
+      <c r="I3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="L3" s="1"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -645,9 +749,15 @@
       <c r="H4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="5"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
+      <c r="I4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -676,9 +786,15 @@
       <c r="H5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="5"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
+      <c r="I5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -707,9 +823,15 @@
       <c r="H6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="5"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
+      <c r="I6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="L6" s="1"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -738,9 +860,15 @@
       <c r="H7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="5"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
+      <c r="I7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="L7" s="1"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -769,9 +897,15 @@
       <c r="H8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="5"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
+      <c r="I8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="L8" s="1"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -800,9 +934,15 @@
       <c r="H9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="5"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
+      <c r="I9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="L9" s="1"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
@@ -831,9 +971,15 @@
       <c r="H10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I10" s="5"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
+      <c r="I10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="L10" s="1"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
@@ -862,9 +1008,15 @@
       <c r="H11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I11" s="5"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
+      <c r="I11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="L11" s="1"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
@@ -893,9 +1045,15 @@
       <c r="H12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I12" s="5"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
+      <c r="I12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="L12" s="1"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
@@ -924,9 +1082,15 @@
       <c r="H13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I13" s="5"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
+      <c r="I13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="L13" s="1"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
@@ -955,9 +1119,15 @@
       <c r="H14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I14" s="5"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
+      <c r="I14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="L14" s="1"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
@@ -986,9 +1156,15 @@
       <c r="H15" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I15" s="5"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
+      <c r="I15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="L15" s="1"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
@@ -1017,9 +1193,15 @@
       <c r="H16" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I16" s="5"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
+      <c r="I16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="L16" s="1"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
@@ -1048,9 +1230,15 @@
       <c r="H17" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I17" s="5"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
+      <c r="I17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="L17" s="1"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
@@ -1079,9 +1267,15 @@
       <c r="H18" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I18" s="5"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
+      <c r="I18" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="L18" s="1"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
@@ -1111,9 +1305,15 @@
       <c r="H19" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I19" s="5"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
+      <c r="I19" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="L19" s="1"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
@@ -1143,9 +1343,16 @@
       <c r="H20" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I20" s="5"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
+      <c r="I20" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J20" s="1">
+        <v>12610</v>
+      </c>
+      <c r="K20" s="1">
+        <f>J20</f>
+        <v>12610</v>
+      </c>
       <c r="L20" s="1"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
@@ -1175,9 +1382,16 @@
       <c r="H21" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I21" s="5"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
+      <c r="I21" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J21" s="1">
+        <v>13470</v>
+      </c>
+      <c r="K21" s="1">
+        <f>J20+J21</f>
+        <v>26080</v>
+      </c>
       <c r="L21" s="1"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
@@ -1207,9 +1421,16 @@
       <c r="H22" s="7">
         <v>1469</v>
       </c>
-      <c r="I22" s="5"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
+      <c r="I22" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J22" s="1">
+        <v>14760</v>
+      </c>
+      <c r="K22" s="1">
+        <f>J20+J21+J22</f>
+        <v>40840</v>
+      </c>
       <c r="L22" s="1"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
@@ -1239,9 +1460,16 @@
       <c r="H23" s="7">
         <v>2152</v>
       </c>
-      <c r="I23" s="5"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
+      <c r="I23" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J23" s="1">
+        <v>16110</v>
+      </c>
+      <c r="K23" s="1">
+        <f>J20+J21+J22+J23</f>
+        <v>56950</v>
+      </c>
       <c r="L23" s="1"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
@@ -1271,9 +1499,16 @@
       <c r="H24" s="7">
         <v>3133</v>
       </c>
-      <c r="I24" s="5"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
+      <c r="I24" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J24" s="1">
+        <v>10470</v>
+      </c>
+      <c r="K24" s="1">
+        <f>J20+J21+J22+J23+J24</f>
+        <v>67420</v>
+      </c>
       <c r="L24" s="1"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
@@ -1303,9 +1538,16 @@
       <c r="H25" s="7">
         <v>4748</v>
       </c>
-      <c r="I25" s="5"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
+      <c r="I25" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J25" s="1">
+        <v>15300</v>
+      </c>
+      <c r="K25" s="1">
+        <f>J20+J21+J22+J23+J24+J25</f>
+        <v>82720</v>
+      </c>
       <c r="L25" s="1"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
@@ -1335,9 +1577,16 @@
       <c r="H26" s="7">
         <v>8611</v>
       </c>
-      <c r="I26" s="5"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
+      <c r="I26" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J26" s="1">
+        <v>18090</v>
+      </c>
+      <c r="K26" s="1">
+        <f>J20+J21+J22+J23+J24+J25+J26</f>
+        <v>100810</v>
+      </c>
       <c r="L26" s="1"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
@@ -1367,9 +1616,16 @@
       <c r="H27" s="7">
         <v>13882</v>
       </c>
-      <c r="I27" s="5"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
+      <c r="I27" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J27" s="1">
+        <v>26530</v>
+      </c>
+      <c r="K27" s="1">
+        <f>J20+J21+J22+J23+J24+J25+J26+J27</f>
+        <v>127340</v>
+      </c>
       <c r="L27" s="1"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
@@ -1399,9 +1655,16 @@
       <c r="H28" s="7">
         <v>12293</v>
       </c>
-      <c r="I28" s="5"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
+      <c r="I28" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J28" s="1">
+        <v>21280</v>
+      </c>
+      <c r="K28" s="1">
+        <f>J20+J21+J22+J23+J24+J25+J26+J27+J28</f>
+        <v>148620</v>
+      </c>
       <c r="L28" s="1"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
@@ -1431,9 +1694,16 @@
       <c r="H29" s="7">
         <v>20156</v>
       </c>
-      <c r="I29" s="5"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
+      <c r="I29" s="5">
+        <v>6300</v>
+      </c>
+      <c r="J29" s="1">
+        <v>14570</v>
+      </c>
+      <c r="K29" s="1">
+        <f>J20+J21+J22+J23+J24+J25+J26+J27+J28+J29</f>
+        <v>163190</v>
+      </c>
       <c r="L29" s="1"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
@@ -1462,8 +1732,12 @@
       <c r="H30" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
+      <c r="I30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
     </row>
@@ -1489,6 +1763,30 @@
       </c>
       <c r="B33" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>16</v>
+      </c>
+      <c r="B34" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>16</v>
+      </c>
+      <c r="B35" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>21</v>
+      </c>
+      <c r="B36" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Electric(or)HybridVehicleRegistrationByCountry.xlsx
+++ b/Data/Electric(or)HybridVehicleRegistrationByCountry.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/96bc53f14345776c/Documents/GitHub/EV_affect_on_emissions/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="54" documentId="8_{2905DE34-F120-4DDE-9FEC-CCCB70ABC7D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{98A6275A-A7E2-4557-B1E3-0F8E0B8D64A8}"/>
+  <xr:revisionPtr revIDLastSave="106" documentId="8_{2905DE34-F120-4DDE-9FEC-CCCB70ABC7D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B7944EAB-2F9A-4424-8C0C-91B6A6F6CA2F}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{574D2366-16CB-44FC-813B-F7BB4ECA52CA}"/>
+    <workbookView xWindow="5136" yWindow="1104" windowWidth="7500" windowHeight="6000" xr2:uid="{574D2366-16CB-44FC-813B-F7BB4ECA52CA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="29">
   <si>
     <t>Year</t>
   </si>
@@ -154,6 +154,21 @@
   <si>
     <t>Japan H+E</t>
   </si>
+  <si>
+    <t>EU H+E</t>
+  </si>
+  <si>
+    <t>EU H</t>
+  </si>
+  <si>
+    <t>EU E</t>
+  </si>
+  <si>
+    <t>EU</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Plug-in_electric_vehicles_in_Europe</t>
+  </si>
 </sst>
 </file>
 
@@ -162,7 +177,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot; &quot;General"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -218,6 +233,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -239,7 +262,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -262,15 +285,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -296,8 +333,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8"/>
     <cellStyle name="Hyperlink 2" xfId="2" xr:uid="{688CCD97-65E0-4CB3-BA08-FC81B1EC7072}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="3" xr:uid="{F0264848-3E56-4C37-BD75-0AD2AD0213A9}"/>
@@ -614,10 +656,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5749234D-D0EE-412A-A825-652FDE911B6D}">
-  <dimension ref="A1:L36"/>
+  <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -632,7 +674,7 @@
     <col min="11" max="11" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -648,9 +690,9 @@
         <v>19</v>
       </c>
       <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L1" s="9"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -681,12 +723,20 @@
       <c r="J2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="1"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>1994</v>
       </c>
@@ -709,7 +759,7 @@
       <c r="G3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="3" t="s">
         <v>12</v>
       </c>
       <c r="I3" s="5" t="s">
@@ -718,12 +768,20 @@
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L3" s="1"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>1995</v>
       </c>
@@ -746,7 +804,7 @@
       <c r="G4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="3" t="s">
         <v>12</v>
       </c>
       <c r="I4" s="5" t="s">
@@ -755,12 +813,20 @@
       <c r="J4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L4" s="1"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>1996</v>
       </c>
@@ -783,7 +849,7 @@
       <c r="G5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="3" t="s">
         <v>12</v>
       </c>
       <c r="I5" s="5" t="s">
@@ -792,12 +858,20 @@
       <c r="J5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L5" s="1"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>1997</v>
       </c>
@@ -820,7 +894,7 @@
       <c r="G6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="3" t="s">
         <v>12</v>
       </c>
       <c r="I6" s="5" t="s">
@@ -829,12 +903,20 @@
       <c r="J6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L6" s="1"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>1998</v>
       </c>
@@ -857,7 +939,7 @@
       <c r="G7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="3" t="s">
         <v>12</v>
       </c>
       <c r="I7" s="5" t="s">
@@ -866,12 +948,20 @@
       <c r="J7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L7" s="1"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>1999</v>
       </c>
@@ -894,7 +984,7 @@
       <c r="G8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="3" t="s">
         <v>12</v>
       </c>
       <c r="I8" s="5" t="s">
@@ -903,12 +993,20 @@
       <c r="J8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L8" s="1"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>2000</v>
       </c>
@@ -931,7 +1029,7 @@
       <c r="G9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="3" t="s">
         <v>12</v>
       </c>
       <c r="I9" s="5" t="s">
@@ -940,12 +1038,20 @@
       <c r="J9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L9" s="1"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="N9" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>2001</v>
       </c>
@@ -968,7 +1074,7 @@
       <c r="G10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="H10" s="3" t="s">
         <v>12</v>
       </c>
       <c r="I10" s="5" t="s">
@@ -977,12 +1083,20 @@
       <c r="J10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L10" s="1"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="N10" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>2002</v>
       </c>
@@ -1005,7 +1119,7 @@
       <c r="G11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="H11" s="3" t="s">
         <v>12</v>
       </c>
       <c r="I11" s="5" t="s">
@@ -1014,12 +1128,20 @@
       <c r="J11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L11" s="1"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="N11" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>2003</v>
       </c>
@@ -1042,7 +1164,7 @@
       <c r="G12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="H12" s="3" t="s">
         <v>12</v>
       </c>
       <c r="I12" s="5" t="s">
@@ -1051,12 +1173,20 @@
       <c r="J12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L12" s="1"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="N12" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>2004</v>
       </c>
@@ -1079,7 +1209,7 @@
       <c r="G13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="H13" s="3" t="s">
         <v>12</v>
       </c>
       <c r="I13" s="5" t="s">
@@ -1088,12 +1218,20 @@
       <c r="J13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L13" s="1"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="N13" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>2005</v>
       </c>
@@ -1116,7 +1254,7 @@
       <c r="G14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="H14" s="3" t="s">
         <v>12</v>
       </c>
       <c r="I14" s="5" t="s">
@@ -1125,12 +1263,20 @@
       <c r="J14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L14" s="1"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="N14" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>2006</v>
       </c>
@@ -1153,7 +1299,7 @@
       <c r="G15" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="H15" s="3" t="s">
         <v>12</v>
       </c>
       <c r="I15" s="5" t="s">
@@ -1162,12 +1308,20 @@
       <c r="J15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L15" s="1"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M15" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="N15" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>2007</v>
       </c>
@@ -1190,7 +1344,7 @@
       <c r="G16" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="H16" s="3" t="s">
         <v>12</v>
       </c>
       <c r="I16" s="5" t="s">
@@ -1199,12 +1353,20 @@
       <c r="J16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L16" s="1"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="N16" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>2008</v>
       </c>
@@ -1227,7 +1389,7 @@
       <c r="G17" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H17" s="4" t="s">
+      <c r="H17" s="3" t="s">
         <v>12</v>
       </c>
       <c r="I17" s="5" t="s">
@@ -1236,12 +1398,20 @@
       <c r="J17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L17" s="1"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M17" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="N17" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>2009</v>
       </c>
@@ -1264,7 +1434,7 @@
       <c r="G18" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H18" s="4" t="s">
+      <c r="H18" s="3" t="s">
         <v>12</v>
       </c>
       <c r="I18" s="5" t="s">
@@ -1273,12 +1443,20 @@
       <c r="J18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L18" s="1"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M18" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="N18" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>2010</v>
       </c>
@@ -1302,7 +1480,7 @@
       <c r="G19" s="6">
         <v>980</v>
       </c>
-      <c r="H19" s="4" t="s">
+      <c r="H19" s="3" t="s">
         <v>12</v>
       </c>
       <c r="I19" s="5" t="s">
@@ -1311,12 +1489,20 @@
       <c r="J19" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L19" s="1"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M19" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="N19" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>2011</v>
       </c>
@@ -1340,7 +1526,7 @@
       <c r="G20" s="6">
         <v>4312</v>
       </c>
-      <c r="H20" s="4" t="s">
+      <c r="H20" s="3" t="s">
         <v>12</v>
       </c>
       <c r="I20" s="5" t="s">
@@ -1349,13 +1535,22 @@
       <c r="J20" s="1">
         <v>12610</v>
       </c>
-      <c r="K20" s="1">
+      <c r="K20" s="2">
         <f>J20</f>
         <v>12610</v>
       </c>
-      <c r="L20" s="1"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L20" s="3">
+        <f>M20+N20</f>
+        <v>11873</v>
+      </c>
+      <c r="M20" s="7">
+        <v>375</v>
+      </c>
+      <c r="N20" s="7">
+        <v>11498</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>2012</v>
       </c>
@@ -1379,7 +1574,7 @@
       <c r="G21" s="6">
         <v>9980</v>
       </c>
-      <c r="H21" s="4" t="s">
+      <c r="H21" s="3" t="s">
         <v>12</v>
       </c>
       <c r="I21" s="5" t="s">
@@ -1388,13 +1583,22 @@
       <c r="J21" s="1">
         <v>13470</v>
       </c>
-      <c r="K21" s="1">
+      <c r="K21" s="2">
         <f>J20+J21</f>
         <v>26080</v>
       </c>
-      <c r="L21" s="1"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L21" s="3">
+        <f t="shared" ref="L21:L30" si="2">M21+N21</f>
+        <v>28645</v>
+      </c>
+      <c r="M21" s="7">
+        <v>9760</v>
+      </c>
+      <c r="N21" s="7">
+        <v>18885</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>2013</v>
       </c>
@@ -1418,7 +1622,7 @@
       <c r="G22" s="6">
         <v>13954</v>
       </c>
-      <c r="H22" s="7">
+      <c r="H22" s="3">
         <v>1469</v>
       </c>
       <c r="I22" s="5" t="s">
@@ -1427,13 +1631,22 @@
       <c r="J22" s="1">
         <v>14760</v>
       </c>
-      <c r="K22" s="1">
+      <c r="K22" s="2">
         <f>J20+J21+J22</f>
         <v>40840</v>
       </c>
-      <c r="L22" s="1"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L22" s="3">
+        <f t="shared" si="2"/>
+        <v>65071</v>
+      </c>
+      <c r="M22" s="7">
+        <v>31447</v>
+      </c>
+      <c r="N22" s="7">
+        <v>33624</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>2014</v>
       </c>
@@ -1457,7 +1670,7 @@
       <c r="G23" s="6">
         <v>15045</v>
       </c>
-      <c r="H23" s="7">
+      <c r="H23" s="3">
         <v>2152</v>
       </c>
       <c r="I23" s="5" t="s">
@@ -1466,13 +1679,22 @@
       <c r="J23" s="1">
         <v>16110</v>
       </c>
-      <c r="K23" s="1">
+      <c r="K23" s="2">
         <f>J20+J21+J22+J23</f>
         <v>56950</v>
       </c>
-      <c r="L23" s="1"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L23" s="3">
+        <f t="shared" si="2"/>
+        <v>97791</v>
+      </c>
+      <c r="M23" s="7">
+        <v>39547</v>
+      </c>
+      <c r="N23" s="7">
+        <v>58244</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>2015</v>
       </c>
@@ -1496,7 +1718,7 @@
       <c r="G24" s="6">
         <v>22695</v>
       </c>
-      <c r="H24" s="7">
+      <c r="H24" s="3">
         <v>3133</v>
       </c>
       <c r="I24" s="5" t="s">
@@ -1505,13 +1727,22 @@
       <c r="J24" s="1">
         <v>10470</v>
       </c>
-      <c r="K24" s="1">
+      <c r="K24" s="2">
         <f>J20+J21+J22+J23+J24</f>
         <v>67420</v>
       </c>
-      <c r="L24" s="1"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L24" s="3">
+        <f t="shared" si="2"/>
+        <v>184637</v>
+      </c>
+      <c r="M24" s="7">
+        <v>96436</v>
+      </c>
+      <c r="N24" s="7">
+        <v>88201</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>2016</v>
       </c>
@@ -1535,7 +1766,7 @@
       <c r="G25" s="6">
         <v>27307</v>
       </c>
-      <c r="H25" s="7">
+      <c r="H25" s="3">
         <v>4748</v>
       </c>
       <c r="I25" s="5" t="s">
@@ -1544,13 +1775,22 @@
       <c r="J25" s="1">
         <v>15300</v>
       </c>
-      <c r="K25" s="1">
+      <c r="K25" s="2">
         <f>J20+J21+J22+J23+J24+J25</f>
         <v>82720</v>
       </c>
-      <c r="L25" s="1"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L25" s="3">
+        <f t="shared" si="2"/>
+        <v>198874</v>
+      </c>
+      <c r="M25" s="7">
+        <v>107878</v>
+      </c>
+      <c r="N25" s="7">
+        <v>90996</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>2017</v>
       </c>
@@ -1574,7 +1814,7 @@
       <c r="G26" s="6">
         <v>31994</v>
       </c>
-      <c r="H26" s="7">
+      <c r="H26" s="3">
         <v>8611</v>
       </c>
       <c r="I26" s="5" t="s">
@@ -1583,13 +1823,22 @@
       <c r="J26" s="1">
         <v>18090</v>
       </c>
-      <c r="K26" s="1">
+      <c r="K26" s="2">
         <f>J20+J21+J22+J23+J24+J25+J26</f>
         <v>100810</v>
       </c>
-      <c r="L26" s="1"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L26" s="3">
+        <f t="shared" si="2"/>
+        <v>289072</v>
+      </c>
+      <c r="M26" s="7">
+        <v>153297</v>
+      </c>
+      <c r="N26" s="7">
+        <v>135775</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>2018</v>
       </c>
@@ -1613,7 +1862,7 @@
       <c r="G27" s="6">
         <v>40306</v>
       </c>
-      <c r="H27" s="7">
+      <c r="H27" s="3">
         <v>13882</v>
       </c>
       <c r="I27" s="5" t="s">
@@ -1622,13 +1871,22 @@
       <c r="J27" s="1">
         <v>26530</v>
       </c>
-      <c r="K27" s="1">
+      <c r="K27" s="2">
         <f>J20+J21+J22+J23+J24+J25+J26+J27</f>
         <v>127340</v>
       </c>
-      <c r="L27" s="1"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L27" s="3">
+        <f t="shared" si="2"/>
+        <v>385293</v>
+      </c>
+      <c r="M27" s="7">
+        <v>185631</v>
+      </c>
+      <c r="N27" s="7">
+        <v>199662</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>2019</v>
       </c>
@@ -1652,7 +1910,7 @@
       <c r="G28" s="6">
         <v>50884</v>
       </c>
-      <c r="H28" s="7">
+      <c r="H28" s="3">
         <v>12293</v>
       </c>
       <c r="I28" s="5" t="s">
@@ -1661,13 +1919,22 @@
       <c r="J28" s="1">
         <v>21280</v>
       </c>
-      <c r="K28" s="1">
+      <c r="K28" s="2">
         <f>J20+J21+J22+J23+J24+J25+J26+J27+J28</f>
         <v>148620</v>
       </c>
-      <c r="L28" s="1"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L28" s="3">
+        <f t="shared" si="2"/>
+        <v>559871</v>
+      </c>
+      <c r="M28" s="7">
+        <v>199707</v>
+      </c>
+      <c r="N28" s="7">
+        <v>360164</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>2020</v>
       </c>
@@ -1691,7 +1958,7 @@
       <c r="G29" s="6">
         <v>119888</v>
       </c>
-      <c r="H29" s="7">
+      <c r="H29" s="3">
         <v>20156</v>
       </c>
       <c r="I29" s="5">
@@ -1700,13 +1967,22 @@
       <c r="J29" s="1">
         <v>14570</v>
       </c>
-      <c r="K29" s="1">
+      <c r="K29" s="2">
         <f>J20+J21+J22+J23+J24+J25+J26+J27+J28+J29</f>
         <v>163190</v>
       </c>
-      <c r="L29" s="1"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L29" s="3">
+        <f t="shared" si="2"/>
+        <v>1364813</v>
+      </c>
+      <c r="M29" s="7">
+        <v>619129</v>
+      </c>
+      <c r="N29" s="7">
+        <v>745684</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>2021</v>
       </c>
@@ -1729,7 +2005,7 @@
       <c r="G30" s="4">
         <v>174191</v>
       </c>
-      <c r="H30" s="7" t="s">
+      <c r="H30" s="3" t="s">
         <v>12</v>
       </c>
       <c r="I30" s="1" t="s">
@@ -1738,22 +2014,31 @@
       <c r="J30" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K30" s="2"/>
+      <c r="L30" s="3">
+        <f t="shared" si="2"/>
+        <v>2210000</v>
+      </c>
+      <c r="M30" s="7">
+        <v>1020000</v>
+      </c>
+      <c r="N30" s="7">
+        <v>1190000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>6</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>10</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="10" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1761,7 +2046,7 @@
       <c r="A33" t="s">
         <v>14</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="10" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1789,8 +2074,22 @@
         <v>22</v>
       </c>
     </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>27</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B37" r:id="rId1" xr:uid="{2440E976-7D79-4235-A5FB-8E31E08B3178}"/>
+    <hyperlink ref="B33" r:id="rId2" xr:uid="{EA3490B5-7344-4D20-BDFB-5096C3ED7089}"/>
+    <hyperlink ref="B32" r:id="rId3" xr:uid="{B7B4ADB7-2ABF-49CF-B5A0-3BF8B6B4CEDA}"/>
+    <hyperlink ref="B31" r:id="rId4" location="full-publication-update-history" xr:uid="{823152B2-63D0-468F-BDB6-CEAE1450FFEC}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
--- a/Data/Electric(or)HybridVehicleRegistrationByCountry.xlsx
+++ b/Data/Electric(or)HybridVehicleRegistrationByCountry.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/96bc53f14345776c/Documents/GitHub/EV_affect_on_emissions/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="106" documentId="8_{2905DE34-F120-4DDE-9FEC-CCCB70ABC7D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B7944EAB-2F9A-4424-8C0C-91B6A6F6CA2F}"/>
+  <xr:revisionPtr revIDLastSave="227" documentId="8_{2905DE34-F120-4DDE-9FEC-CCCB70ABC7D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8A7F14CC-5C69-476B-9BBF-380431B49609}"/>
   <bookViews>
-    <workbookView xWindow="5136" yWindow="1104" windowWidth="7500" windowHeight="6000" xr2:uid="{574D2366-16CB-44FC-813B-F7BB4ECA52CA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{574D2366-16CB-44FC-813B-F7BB4ECA52CA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="35">
   <si>
     <t>Year</t>
   </si>
@@ -169,6 +169,24 @@
   <si>
     <t>https://en.wikipedia.org/wiki/Plug-in_electric_vehicles_in_Europe</t>
   </si>
+  <si>
+    <t>https://publications.jrc.ec.europa.eu/repository/bitstream/JRC112745/jrc112745_kjna29401enn.pdf</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Germany H+E</t>
+  </si>
+  <si>
+    <t>Germany H</t>
+  </si>
+  <si>
+    <t>Germany E</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Plug-in_electric_vehicles_in_Germany</t>
+  </si>
 </sst>
 </file>
 
@@ -177,7 +195,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot; &quot;General"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -241,8 +259,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -261,8 +307,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -298,6 +362,19 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -307,7 +384,7 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -337,6 +414,48 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Hyperlink" xfId="5" builtinId="8"/>
@@ -656,10 +775,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5749234D-D0EE-412A-A825-652FDE911B6D}">
-  <dimension ref="A1:N37"/>
+  <dimension ref="A1:X38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -672,9 +791,15 @@
     <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="22.88671875" customWidth="1"/>
     <col min="11" max="11" width="10" customWidth="1"/>
+    <col min="15" max="15" width="18.6640625" customWidth="1"/>
+    <col min="16" max="16" width="11.109375" customWidth="1"/>
+    <col min="21" max="21" width="10.5546875" customWidth="1"/>
+    <col min="22" max="22" width="10" customWidth="1"/>
+    <col min="23" max="23" width="9.6640625" customWidth="1"/>
+    <col min="24" max="24" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -691,8 +816,9 @@
       </c>
       <c r="K1" s="1"/>
       <c r="L1" s="9"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O1" s="13"/>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -732,11 +858,38 @@
       <c r="M2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N2" s="11" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O2" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="S2" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="T2" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="U2" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="V2" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="W2" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="X2" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>1994</v>
       </c>
@@ -750,8 +903,8 @@
       <c r="D3" s="4">
         <v>93</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>12</v>
+      <c r="E3" s="14">
+        <v>0</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>12</v>
@@ -759,8 +912,8 @@
       <c r="G3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>12</v>
+      <c r="H3" s="14">
+        <v>0</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>12</v>
@@ -768,20 +921,47 @@
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>12</v>
+      <c r="K3" s="15">
+        <v>0</v>
+      </c>
+      <c r="L3" s="14">
+        <v>0</v>
       </c>
       <c r="M3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="O3" s="16">
+        <v>0</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S3" s="17">
+        <v>1994</v>
+      </c>
+      <c r="T3" s="19">
+        <v>93</v>
+      </c>
+      <c r="U3" s="20">
+        <v>0</v>
+      </c>
+      <c r="V3" s="21">
+        <v>0</v>
+      </c>
+      <c r="W3" s="20">
+        <v>0</v>
+      </c>
+      <c r="X3" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>1995</v>
       </c>
@@ -795,8 +975,8 @@
       <c r="D4" s="4">
         <v>74</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>12</v>
+      <c r="E4" s="14">
+        <v>0</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>12</v>
@@ -804,8 +984,8 @@
       <c r="G4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>12</v>
+      <c r="H4" s="14">
+        <v>0</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>12</v>
@@ -813,20 +993,47 @@
       <c r="J4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>12</v>
+      <c r="K4" s="15">
+        <v>0</v>
+      </c>
+      <c r="L4" s="14">
+        <v>0</v>
       </c>
       <c r="M4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N4" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="O4" s="16">
+        <v>0</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S4" s="17">
+        <v>1995</v>
+      </c>
+      <c r="T4" s="19">
+        <v>74</v>
+      </c>
+      <c r="U4" s="20">
+        <v>0</v>
+      </c>
+      <c r="V4" s="21">
+        <v>0</v>
+      </c>
+      <c r="W4" s="20">
+        <v>0</v>
+      </c>
+      <c r="X4" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>1996</v>
       </c>
@@ -840,8 +1047,8 @@
       <c r="D5" s="4">
         <v>94</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>12</v>
+      <c r="E5" s="14">
+        <v>0</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>12</v>
@@ -849,8 +1056,8 @@
       <c r="G5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>12</v>
+      <c r="H5" s="14">
+        <v>0</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>12</v>
@@ -858,20 +1065,47 @@
       <c r="J5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>12</v>
+      <c r="K5" s="15">
+        <v>0</v>
+      </c>
+      <c r="L5" s="14">
+        <v>0</v>
       </c>
       <c r="M5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="N5" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N5" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="O5" s="16">
+        <v>0</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S5" s="17">
+        <v>1996</v>
+      </c>
+      <c r="T5" s="19">
+        <v>94</v>
+      </c>
+      <c r="U5" s="20">
+        <v>0</v>
+      </c>
+      <c r="V5" s="21">
+        <v>0</v>
+      </c>
+      <c r="W5" s="20">
+        <v>0</v>
+      </c>
+      <c r="X5" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>1997</v>
       </c>
@@ -885,8 +1119,8 @@
       <c r="D6" s="4">
         <v>118</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>12</v>
+      <c r="E6" s="14">
+        <v>0</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>12</v>
@@ -894,8 +1128,8 @@
       <c r="G6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>12</v>
+      <c r="H6" s="14">
+        <v>0</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>12</v>
@@ -903,20 +1137,47 @@
       <c r="J6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>12</v>
+      <c r="K6" s="15">
+        <v>0</v>
+      </c>
+      <c r="L6" s="14">
+        <v>0</v>
       </c>
       <c r="M6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="N6" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="O6" s="16">
+        <v>0</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S6" s="17">
+        <v>1997</v>
+      </c>
+      <c r="T6" s="19">
+        <v>118</v>
+      </c>
+      <c r="U6" s="20">
+        <v>0</v>
+      </c>
+      <c r="V6" s="21">
+        <v>0</v>
+      </c>
+      <c r="W6" s="20">
+        <v>0</v>
+      </c>
+      <c r="X6" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>1998</v>
       </c>
@@ -930,8 +1191,8 @@
       <c r="D7" s="4">
         <v>155</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>12</v>
+      <c r="E7" s="14">
+        <v>0</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>12</v>
@@ -939,8 +1200,8 @@
       <c r="G7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="3" t="s">
-        <v>12</v>
+      <c r="H7" s="14">
+        <v>0</v>
       </c>
       <c r="I7" s="5" t="s">
         <v>12</v>
@@ -948,20 +1209,47 @@
       <c r="J7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>12</v>
+      <c r="K7" s="15">
+        <v>0</v>
+      </c>
+      <c r="L7" s="14">
+        <v>0</v>
       </c>
       <c r="M7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="N7" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="O7" s="16">
+        <v>0</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S7" s="17">
+        <v>1998</v>
+      </c>
+      <c r="T7" s="19">
+        <v>155</v>
+      </c>
+      <c r="U7" s="20">
+        <v>0</v>
+      </c>
+      <c r="V7" s="21">
+        <v>0</v>
+      </c>
+      <c r="W7" s="20">
+        <v>0</v>
+      </c>
+      <c r="X7" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>1999</v>
       </c>
@@ -975,8 +1263,8 @@
       <c r="D8" s="4">
         <v>203</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>12</v>
+      <c r="E8" s="14">
+        <v>0</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>12</v>
@@ -984,8 +1272,8 @@
       <c r="G8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>12</v>
+      <c r="H8" s="14">
+        <v>0</v>
       </c>
       <c r="I8" s="5" t="s">
         <v>12</v>
@@ -993,20 +1281,47 @@
       <c r="J8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>12</v>
+      <c r="K8" s="15">
+        <v>0</v>
+      </c>
+      <c r="L8" s="14">
+        <v>0</v>
       </c>
       <c r="M8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="N8" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N8" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="O8" s="16">
+        <v>0</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S8" s="17">
+        <v>1999</v>
+      </c>
+      <c r="T8" s="19">
+        <v>203</v>
+      </c>
+      <c r="U8" s="20">
+        <v>0</v>
+      </c>
+      <c r="V8" s="21">
+        <v>0</v>
+      </c>
+      <c r="W8" s="20">
+        <v>0</v>
+      </c>
+      <c r="X8" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>2000</v>
       </c>
@@ -1020,8 +1335,8 @@
       <c r="D9" s="4">
         <v>231</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>12</v>
+      <c r="E9" s="14">
+        <v>0</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>12</v>
@@ -1029,8 +1344,8 @@
       <c r="G9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>12</v>
+      <c r="H9" s="14">
+        <v>0</v>
       </c>
       <c r="I9" s="5" t="s">
         <v>12</v>
@@ -1038,20 +1353,47 @@
       <c r="J9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>12</v>
+      <c r="K9" s="15">
+        <v>0</v>
+      </c>
+      <c r="L9" s="14">
+        <v>0</v>
       </c>
       <c r="M9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="N9" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N9" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="O9" s="16">
+        <v>0</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S9" s="17">
+        <v>2000</v>
+      </c>
+      <c r="T9" s="19">
+        <v>413</v>
+      </c>
+      <c r="U9" s="20">
+        <v>0</v>
+      </c>
+      <c r="V9" s="21">
+        <v>0</v>
+      </c>
+      <c r="W9" s="20">
+        <v>0</v>
+      </c>
+      <c r="X9" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>2001</v>
       </c>
@@ -1065,8 +1407,8 @@
       <c r="D10" s="4">
         <v>285</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>12</v>
+      <c r="E10" s="14">
+        <v>0</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>12</v>
@@ -1074,8 +1416,8 @@
       <c r="G10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>12</v>
+      <c r="H10" s="14">
+        <v>0</v>
       </c>
       <c r="I10" s="5" t="s">
         <v>12</v>
@@ -1083,20 +1425,47 @@
       <c r="J10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>12</v>
+      <c r="K10" s="15">
+        <v>0</v>
+      </c>
+      <c r="L10" s="14">
+        <v>0</v>
       </c>
       <c r="M10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="N10" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N10" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="O10" s="16">
+        <v>0</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S10" s="17">
+        <v>2001</v>
+      </c>
+      <c r="T10" s="19">
+        <v>1055</v>
+      </c>
+      <c r="U10" s="20">
+        <v>0</v>
+      </c>
+      <c r="V10" s="21">
+        <v>0</v>
+      </c>
+      <c r="W10" s="20">
+        <v>0</v>
+      </c>
+      <c r="X10" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>2002</v>
       </c>
@@ -1110,8 +1479,8 @@
       <c r="D11" s="4">
         <v>340</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>12</v>
+      <c r="E11" s="14">
+        <v>0</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>12</v>
@@ -1119,8 +1488,8 @@
       <c r="G11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H11" s="3" t="s">
-        <v>12</v>
+      <c r="H11" s="14">
+        <v>0</v>
       </c>
       <c r="I11" s="5" t="s">
         <v>12</v>
@@ -1128,20 +1497,47 @@
       <c r="J11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>12</v>
+      <c r="K11" s="15">
+        <v>0</v>
+      </c>
+      <c r="L11" s="14">
+        <v>0</v>
       </c>
       <c r="M11" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="N11" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N11" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="O11" s="16">
+        <v>0</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S11" s="17">
+        <v>2002</v>
+      </c>
+      <c r="T11" s="19">
+        <v>1434</v>
+      </c>
+      <c r="U11" s="20">
+        <v>0</v>
+      </c>
+      <c r="V11" s="21">
+        <v>0</v>
+      </c>
+      <c r="W11" s="20">
+        <v>0</v>
+      </c>
+      <c r="X11" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>2003</v>
       </c>
@@ -1155,8 +1551,8 @@
       <c r="D12" s="4">
         <v>364</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>12</v>
+      <c r="E12" s="14">
+        <v>0</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>12</v>
@@ -1164,8 +1560,8 @@
       <c r="G12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>12</v>
+      <c r="H12" s="14">
+        <v>0</v>
       </c>
       <c r="I12" s="5" t="s">
         <v>12</v>
@@ -1173,20 +1569,47 @@
       <c r="J12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>12</v>
+      <c r="K12" s="15">
+        <v>0</v>
+      </c>
+      <c r="L12" s="14">
+        <v>0</v>
       </c>
       <c r="M12" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="N12" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N12" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="O12" s="16">
+        <v>0</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S12" s="17">
+        <v>2003</v>
+      </c>
+      <c r="T12" s="19">
+        <v>1848</v>
+      </c>
+      <c r="U12" s="20">
+        <v>0</v>
+      </c>
+      <c r="V12" s="21">
+        <v>0</v>
+      </c>
+      <c r="W12" s="20">
+        <v>0</v>
+      </c>
+      <c r="X12" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>2004</v>
       </c>
@@ -1200,8 +1623,8 @@
       <c r="D13" s="4">
         <v>414</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>12</v>
+      <c r="E13" s="14">
+        <v>0</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>12</v>
@@ -1209,8 +1632,8 @@
       <c r="G13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H13" s="3" t="s">
-        <v>12</v>
+      <c r="H13" s="14">
+        <v>0</v>
       </c>
       <c r="I13" s="5" t="s">
         <v>12</v>
@@ -1218,20 +1641,47 @@
       <c r="J13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>12</v>
+      <c r="K13" s="15">
+        <v>0</v>
+      </c>
+      <c r="L13" s="14">
+        <v>0</v>
       </c>
       <c r="M13" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="N13" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N13" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="O13" s="16">
+        <v>0</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S13" s="17">
+        <v>2004</v>
+      </c>
+      <c r="T13" s="19">
+        <v>3451</v>
+      </c>
+      <c r="U13" s="20">
+        <v>0</v>
+      </c>
+      <c r="V13" s="21">
+        <v>0</v>
+      </c>
+      <c r="W13" s="20">
+        <v>0</v>
+      </c>
+      <c r="X13" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>2005</v>
       </c>
@@ -1245,8 +1695,8 @@
       <c r="D14" s="4">
         <v>581</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>12</v>
+      <c r="E14" s="14">
+        <v>0</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>12</v>
@@ -1254,8 +1704,8 @@
       <c r="G14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>12</v>
+      <c r="H14" s="14">
+        <v>0</v>
       </c>
       <c r="I14" s="5" t="s">
         <v>12</v>
@@ -1263,20 +1713,47 @@
       <c r="J14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>12</v>
+      <c r="K14" s="15">
+        <v>0</v>
+      </c>
+      <c r="L14" s="14">
+        <v>0</v>
       </c>
       <c r="M14" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="N14" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N14" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="O14" s="16">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S14" s="17">
+        <v>2005</v>
+      </c>
+      <c r="T14" s="19">
+        <v>8895</v>
+      </c>
+      <c r="U14" s="20">
+        <v>0</v>
+      </c>
+      <c r="V14" s="21">
+        <v>0</v>
+      </c>
+      <c r="W14" s="20">
+        <v>0</v>
+      </c>
+      <c r="X14" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>2006</v>
       </c>
@@ -1290,8 +1767,8 @@
       <c r="D15" s="4">
         <v>826</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>12</v>
+      <c r="E15" s="14">
+        <v>0</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>12</v>
@@ -1299,8 +1776,8 @@
       <c r="G15" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>12</v>
+      <c r="H15" s="14">
+        <v>0</v>
       </c>
       <c r="I15" s="5" t="s">
         <v>12</v>
@@ -1308,20 +1785,47 @@
       <c r="J15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>12</v>
+      <c r="K15" s="15">
+        <v>0</v>
+      </c>
+      <c r="L15" s="14">
+        <v>0</v>
       </c>
       <c r="M15" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="N15" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N15" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="O15" s="16">
+        <v>0</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S15" s="17">
+        <v>2006</v>
+      </c>
+      <c r="T15" s="19">
+        <v>17733</v>
+      </c>
+      <c r="U15" s="20">
+        <v>0</v>
+      </c>
+      <c r="V15" s="21">
+        <v>0</v>
+      </c>
+      <c r="W15" s="20">
+        <v>0</v>
+      </c>
+      <c r="X15" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>2007</v>
       </c>
@@ -1335,8 +1839,8 @@
       <c r="D16" s="4">
         <v>1210</v>
       </c>
-      <c r="E16" s="3" t="s">
-        <v>12</v>
+      <c r="E16" s="14">
+        <v>0</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>12</v>
@@ -1344,8 +1848,8 @@
       <c r="G16" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H16" s="3" t="s">
-        <v>12</v>
+      <c r="H16" s="14">
+        <v>0</v>
       </c>
       <c r="I16" s="5" t="s">
         <v>12</v>
@@ -1353,20 +1857,47 @@
       <c r="J16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>12</v>
+      <c r="K16" s="15">
+        <v>0</v>
+      </c>
+      <c r="L16" s="14">
+        <v>0</v>
       </c>
       <c r="M16" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="N16" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N16" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="O16" s="16">
+        <v>0</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S16" s="17">
+        <v>2007</v>
+      </c>
+      <c r="T16" s="19">
+        <v>33265</v>
+      </c>
+      <c r="U16" s="20">
+        <v>0</v>
+      </c>
+      <c r="V16" s="21">
+        <v>0</v>
+      </c>
+      <c r="W16" s="20">
+        <v>0</v>
+      </c>
+      <c r="X16" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>2008</v>
       </c>
@@ -1380,8 +1911,8 @@
       <c r="D17" s="4">
         <v>1343</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>12</v>
+      <c r="E17" s="14">
+        <v>0</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>12</v>
@@ -1389,8 +1920,8 @@
       <c r="G17" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>12</v>
+      <c r="H17" s="14">
+        <v>0</v>
       </c>
       <c r="I17" s="5" t="s">
         <v>12</v>
@@ -1398,20 +1929,47 @@
       <c r="J17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>12</v>
+      <c r="K17" s="15">
+        <v>0</v>
+      </c>
+      <c r="L17" s="14">
+        <v>0</v>
       </c>
       <c r="M17" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="N17" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N17" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="O17" s="16">
+        <v>0</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S17" s="17">
+        <v>2008</v>
+      </c>
+      <c r="T17" s="19">
+        <v>48379</v>
+      </c>
+      <c r="U17" s="20">
+        <v>0</v>
+      </c>
+      <c r="V17" s="21">
+        <v>0</v>
+      </c>
+      <c r="W17" s="20">
+        <v>0</v>
+      </c>
+      <c r="X17" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>2009</v>
       </c>
@@ -1425,8 +1983,8 @@
       <c r="D18" s="4">
         <v>1468</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>12</v>
+      <c r="E18" s="14">
+        <v>0</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>12</v>
@@ -1434,8 +1992,8 @@
       <c r="G18" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>12</v>
+      <c r="H18" s="14">
+        <v>0</v>
       </c>
       <c r="I18" s="5" t="s">
         <v>12</v>
@@ -1443,20 +2001,47 @@
       <c r="J18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K18" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>12</v>
+      <c r="K18" s="15">
+        <v>0</v>
+      </c>
+      <c r="L18" s="14">
+        <v>0</v>
       </c>
       <c r="M18" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="N18" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N18" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="O18" s="16">
+        <v>0</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S18" s="17">
+        <v>2009</v>
+      </c>
+      <c r="T18" s="19">
+        <v>62812</v>
+      </c>
+      <c r="U18" s="20">
+        <v>0</v>
+      </c>
+      <c r="V18" s="21">
+        <v>0</v>
+      </c>
+      <c r="W18" s="20">
+        <v>0</v>
+      </c>
+      <c r="X18" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>2010</v>
       </c>
@@ -1480,8 +2065,8 @@
       <c r="G19" s="6">
         <v>980</v>
       </c>
-      <c r="H19" s="3" t="s">
-        <v>12</v>
+      <c r="H19" s="14">
+        <v>0</v>
       </c>
       <c r="I19" s="5" t="s">
         <v>12</v>
@@ -1489,20 +2074,48 @@
       <c r="J19" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K19" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L19" s="3" t="s">
-        <v>12</v>
+      <c r="K19" s="15">
+        <v>0</v>
+      </c>
+      <c r="L19" s="14">
+        <v>0</v>
       </c>
       <c r="M19" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="N19" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N19" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="O19" s="13">
+        <f t="shared" ref="O19:O30" si="1">P19+Q19</f>
+        <v>541</v>
+      </c>
+      <c r="P19" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>541</v>
+      </c>
+      <c r="S19" s="17">
+        <v>2010</v>
+      </c>
+      <c r="T19" s="19">
+        <v>83930</v>
+      </c>
+      <c r="U19" s="17">
+        <v>980</v>
+      </c>
+      <c r="V19" s="21">
+        <v>0</v>
+      </c>
+      <c r="W19" s="20">
+        <v>0</v>
+      </c>
+      <c r="X19" s="18">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>2011</v>
       </c>
@@ -1520,14 +2133,14 @@
         <v>4312</v>
       </c>
       <c r="F20" s="6">
-        <f t="shared" ref="F20:F30" si="1">E20-G20</f>
+        <f t="shared" ref="F20:F30" si="2">E20-G20</f>
         <v>0</v>
       </c>
       <c r="G20" s="6">
         <v>4312</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>12</v>
+      <c r="H20" s="14">
+        <v>0</v>
       </c>
       <c r="I20" s="5" t="s">
         <v>12</v>
@@ -1546,11 +2159,39 @@
       <c r="M20" s="7">
         <v>375</v>
       </c>
-      <c r="N20" s="7">
+      <c r="N20" s="12">
         <v>11498</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O20" s="13">
+        <f t="shared" si="1"/>
+        <v>2154</v>
+      </c>
+      <c r="P20" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>2154</v>
+      </c>
+      <c r="S20" s="17">
+        <v>2011</v>
+      </c>
+      <c r="T20" s="19">
+        <v>105188</v>
+      </c>
+      <c r="U20" s="17">
+        <v>4312</v>
+      </c>
+      <c r="V20" s="21">
+        <v>0</v>
+      </c>
+      <c r="W20" s="17">
+        <v>12610</v>
+      </c>
+      <c r="X20" s="18">
+        <v>2154</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>2012</v>
       </c>
@@ -1568,14 +2209,14 @@
         <v>9980</v>
       </c>
       <c r="F21" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G21" s="6">
         <v>9980</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>12</v>
+      <c r="H21" s="14">
+        <v>0</v>
       </c>
       <c r="I21" s="5" t="s">
         <v>12</v>
@@ -1588,17 +2229,45 @@
         <v>26080</v>
       </c>
       <c r="L21" s="3">
-        <f t="shared" ref="L21:L30" si="2">M21+N21</f>
+        <f t="shared" ref="L21:L30" si="3">M21+N21</f>
         <v>28645</v>
       </c>
       <c r="M21" s="7">
         <v>9760</v>
       </c>
-      <c r="N21" s="7">
+      <c r="N21" s="12">
         <v>18885</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O21" s="13">
+        <f t="shared" si="1"/>
+        <v>3364</v>
+      </c>
+      <c r="P21" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>3364</v>
+      </c>
+      <c r="S21" s="17">
+        <v>2012</v>
+      </c>
+      <c r="T21" s="19">
+        <v>129651</v>
+      </c>
+      <c r="U21" s="17">
+        <v>9980</v>
+      </c>
+      <c r="V21" s="21">
+        <v>0</v>
+      </c>
+      <c r="W21" s="17">
+        <v>26080</v>
+      </c>
+      <c r="X21" s="18">
+        <v>3364</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>2013</v>
       </c>
@@ -1616,7 +2285,7 @@
         <v>15420</v>
       </c>
       <c r="F22" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1466</v>
       </c>
       <c r="G22" s="6">
@@ -1636,17 +2305,45 @@
         <v>40840</v>
       </c>
       <c r="L22" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>65071</v>
       </c>
       <c r="M22" s="7">
         <v>31447</v>
       </c>
-      <c r="N22" s="7">
+      <c r="N22" s="12">
         <v>33624</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O22" s="13">
+        <f t="shared" si="1"/>
+        <v>7436</v>
+      </c>
+      <c r="P22" s="1">
+        <v>1385</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>6051</v>
+      </c>
+      <c r="S22" s="17">
+        <v>2013</v>
+      </c>
+      <c r="T22" s="19">
+        <v>160024</v>
+      </c>
+      <c r="U22" s="17">
+        <v>15420</v>
+      </c>
+      <c r="V22" s="19">
+        <v>1469</v>
+      </c>
+      <c r="W22" s="17">
+        <v>40840</v>
+      </c>
+      <c r="X22" s="18">
+        <v>7436</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>2014</v>
       </c>
@@ -1664,7 +2361,7 @@
         <v>16654</v>
       </c>
       <c r="F23" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1609</v>
       </c>
       <c r="G23" s="6">
@@ -1684,17 +2381,45 @@
         <v>56950</v>
       </c>
       <c r="L23" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>97791</v>
       </c>
       <c r="M23" s="7">
         <v>39547</v>
       </c>
-      <c r="N23" s="7">
+      <c r="N23" s="12">
         <v>58244</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O23" s="13">
+        <f t="shared" si="1"/>
+        <v>13049</v>
+      </c>
+      <c r="P23" s="1">
+        <v>4527</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>8522</v>
+      </c>
+      <c r="S23" s="17">
+        <v>2014</v>
+      </c>
+      <c r="T23" s="19">
+        <v>204527</v>
+      </c>
+      <c r="U23" s="17">
+        <v>16654</v>
+      </c>
+      <c r="V23" s="19">
+        <v>2152</v>
+      </c>
+      <c r="W23" s="17">
+        <v>56950</v>
+      </c>
+      <c r="X23" s="18">
+        <v>13049</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>2015</v>
       </c>
@@ -1712,7 +2437,7 @@
         <v>28720</v>
       </c>
       <c r="F24" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6025</v>
       </c>
       <c r="G24" s="6">
@@ -1732,17 +2457,45 @@
         <v>67420</v>
       </c>
       <c r="L24" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>184637</v>
       </c>
       <c r="M24" s="7">
         <v>96436</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N24" s="12">
         <v>88201</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O24" s="13">
+        <f t="shared" si="1"/>
+        <v>23464</v>
+      </c>
+      <c r="P24" s="1">
+        <v>11101</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>12363</v>
+      </c>
+      <c r="S24" s="17">
+        <v>2015</v>
+      </c>
+      <c r="T24" s="19">
+        <v>269897</v>
+      </c>
+      <c r="U24" s="17">
+        <v>28720</v>
+      </c>
+      <c r="V24" s="19">
+        <v>3133</v>
+      </c>
+      <c r="W24" s="17">
+        <v>67420</v>
+      </c>
+      <c r="X24" s="18">
+        <v>23464</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>2016</v>
       </c>
@@ -1760,7 +2513,7 @@
         <v>33774</v>
       </c>
       <c r="F25" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6467</v>
       </c>
       <c r="G25" s="6">
@@ -1780,17 +2533,45 @@
         <v>82720</v>
       </c>
       <c r="L25" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>198874</v>
       </c>
       <c r="M25" s="7">
         <v>107878</v>
       </c>
-      <c r="N25" s="7">
+      <c r="N25" s="12">
         <v>90996</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O25" s="13">
+        <f t="shared" si="1"/>
+        <v>25154</v>
+      </c>
+      <c r="P25" s="1">
+        <v>13744</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>11410</v>
+      </c>
+      <c r="S25" s="17">
+        <v>2016</v>
+      </c>
+      <c r="T25" s="19">
+        <v>352230</v>
+      </c>
+      <c r="U25" s="17">
+        <v>33774</v>
+      </c>
+      <c r="V25" s="19">
+        <v>4748</v>
+      </c>
+      <c r="W25" s="17">
+        <v>82720</v>
+      </c>
+      <c r="X25" s="18">
+        <v>25154</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>2017</v>
       </c>
@@ -1808,7 +2589,7 @@
         <v>42797</v>
       </c>
       <c r="F26" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10803</v>
       </c>
       <c r="G26" s="6">
@@ -1828,17 +2609,45 @@
         <v>100810</v>
       </c>
       <c r="L26" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>289072</v>
       </c>
       <c r="M26" s="7">
         <v>153297</v>
       </c>
-      <c r="N26" s="7">
+      <c r="N26" s="12">
         <v>135775</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O26" s="13">
+        <f t="shared" si="1"/>
+        <v>54492</v>
+      </c>
+      <c r="P26" s="1">
+        <v>29436</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>25056</v>
+      </c>
+      <c r="S26" s="17">
+        <v>2017</v>
+      </c>
+      <c r="T26" s="19">
+        <v>460192</v>
+      </c>
+      <c r="U26" s="17">
+        <v>42797</v>
+      </c>
+      <c r="V26" s="19">
+        <v>8611</v>
+      </c>
+      <c r="W26" s="17">
+        <v>100810</v>
+      </c>
+      <c r="X26" s="18">
+        <v>54492</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>2018</v>
       </c>
@@ -1856,7 +2665,7 @@
         <v>53745</v>
       </c>
       <c r="F27" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13439</v>
       </c>
       <c r="G27" s="6">
@@ -1876,17 +2685,45 @@
         <v>127340</v>
       </c>
       <c r="L27" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>385293</v>
       </c>
       <c r="M27" s="7">
         <v>185631</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N27" s="12">
         <v>199662</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O27" s="13">
+        <f t="shared" si="1"/>
+        <v>67504</v>
+      </c>
+      <c r="P27" s="1">
+        <v>31442</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>36062</v>
+      </c>
+      <c r="S27" s="17">
+        <v>2018</v>
+      </c>
+      <c r="T27" s="19">
+        <v>592177</v>
+      </c>
+      <c r="U27" s="17">
+        <v>53745</v>
+      </c>
+      <c r="V27" s="19">
+        <v>13882</v>
+      </c>
+      <c r="W27" s="17">
+        <v>127340</v>
+      </c>
+      <c r="X27" s="18">
+        <v>67504</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>2019</v>
       </c>
@@ -1904,7 +2741,7 @@
         <v>69466</v>
       </c>
       <c r="F28" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>18582</v>
       </c>
       <c r="G28" s="6">
@@ -1924,17 +2761,45 @@
         <v>148620</v>
       </c>
       <c r="L28" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>559871</v>
       </c>
       <c r="M28" s="7">
         <v>199707</v>
       </c>
-      <c r="N28" s="7">
+      <c r="N28" s="12">
         <v>360164</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O28" s="13">
+        <f t="shared" si="1"/>
+        <v>108629</v>
+      </c>
+      <c r="P28" s="1">
+        <v>45348</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>63281</v>
+      </c>
+      <c r="S28" s="17">
+        <v>2019</v>
+      </c>
+      <c r="T28" s="19">
+        <v>754636</v>
+      </c>
+      <c r="U28" s="17">
+        <v>69466</v>
+      </c>
+      <c r="V28" s="19">
+        <v>12293</v>
+      </c>
+      <c r="W28" s="17">
+        <v>148620</v>
+      </c>
+      <c r="X28" s="18">
+        <v>108629</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>2020</v>
       </c>
@@ -1952,7 +2817,7 @@
         <v>194881</v>
       </c>
       <c r="F29" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>74993</v>
       </c>
       <c r="G29" s="6">
@@ -1972,17 +2837,45 @@
         <v>163190</v>
       </c>
       <c r="L29" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1364813</v>
       </c>
       <c r="M29" s="7">
         <v>619129</v>
       </c>
-      <c r="N29" s="7">
+      <c r="N29" s="12">
         <v>745684</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O29" s="13">
+        <f t="shared" si="1"/>
+        <v>394632</v>
+      </c>
+      <c r="P29" s="1">
+        <v>200469</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>194163</v>
+      </c>
+      <c r="S29" s="17">
+        <v>2020</v>
+      </c>
+      <c r="T29" s="19">
+        <v>1060158</v>
+      </c>
+      <c r="U29" s="17">
+        <v>194881</v>
+      </c>
+      <c r="V29" s="19">
+        <v>20156</v>
+      </c>
+      <c r="W29" s="17">
+        <v>163190</v>
+      </c>
+      <c r="X29" s="18">
+        <v>394632</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>2021</v>
       </c>
@@ -1999,7 +2892,7 @@
         <v>315978</v>
       </c>
       <c r="F30" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>141787</v>
       </c>
       <c r="G30" s="4">
@@ -2016,17 +2909,45 @@
       </c>
       <c r="K30" s="2"/>
       <c r="L30" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2210000</v>
       </c>
       <c r="M30" s="7">
         <v>1020000</v>
       </c>
-      <c r="N30" s="7">
+      <c r="N30" s="12">
         <v>1190000</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O30" s="13">
+        <f t="shared" si="1"/>
+        <v>681410</v>
+      </c>
+      <c r="P30" s="1">
+        <v>325449</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>355961</v>
+      </c>
+      <c r="S30" s="17">
+        <v>2021</v>
+      </c>
+      <c r="T30" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="U30" s="17">
+        <v>315978</v>
+      </c>
+      <c r="V30" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="W30" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="X30" s="18">
+        <v>681410</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>6</v>
       </c>
@@ -2034,7 +2955,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>10</v>
       </c>
@@ -2042,7 +2963,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>14</v>
       </c>
@@ -2050,7 +2971,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>16</v>
       </c>
@@ -2058,7 +2979,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>16</v>
       </c>
@@ -2066,7 +2987,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>21</v>
       </c>
@@ -2074,12 +2995,23 @@
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>27</v>
       </c>
       <c r="B37" s="10" t="s">
         <v>28</v>
+      </c>
+      <c r="H37" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>30</v>
+      </c>
+      <c r="B38" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Electric(or)HybridVehicleRegistrationByCountry.xlsx
+++ b/Data/Electric(or)HybridVehicleRegistrationByCountry.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/96bc53f14345776c/Documents/GitHub/EV_affect_on_emissions/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="227" documentId="8_{2905DE34-F120-4DDE-9FEC-CCCB70ABC7D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8A7F14CC-5C69-476B-9BBF-380431B49609}"/>
+  <xr:revisionPtr revIDLastSave="257" documentId="8_{2905DE34-F120-4DDE-9FEC-CCCB70ABC7D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7505B7B2-D40F-401D-BCE7-3A0AA730853C}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{574D2366-16CB-44FC-813B-F7BB4ECA52CA}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="38">
   <si>
     <t>Year</t>
   </si>
@@ -186,6 +186,15 @@
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Plug-in_electric_vehicles_in_Germany</t>
+  </si>
+  <si>
+    <t>Norway H+E</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>https://www.statista.com/statistics/696187/electric-and-hybrid-cars-number-in-norway/</t>
   </si>
 </sst>
 </file>
@@ -288,7 +297,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -323,6 +332,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -384,7 +405,7 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -454,6 +475,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -775,10 +811,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5749234D-D0EE-412A-A825-652FDE911B6D}">
-  <dimension ref="A1:X38"/>
+  <dimension ref="A1:Z39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="R17" sqref="R17"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="AC25" sqref="AC25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -793,13 +829,15 @@
     <col min="11" max="11" width="10" customWidth="1"/>
     <col min="15" max="15" width="18.6640625" customWidth="1"/>
     <col min="16" max="16" width="11.109375" customWidth="1"/>
-    <col min="21" max="21" width="10.5546875" customWidth="1"/>
-    <col min="22" max="22" width="10" customWidth="1"/>
-    <col min="23" max="23" width="9.6640625" customWidth="1"/>
-    <col min="24" max="24" width="12.5546875" customWidth="1"/>
+    <col min="18" max="18" width="11.109375" customWidth="1"/>
+    <col min="22" max="22" width="10.5546875" customWidth="1"/>
+    <col min="23" max="23" width="10" customWidth="1"/>
+    <col min="24" max="24" width="9.6640625" customWidth="1"/>
+    <col min="25" max="25" width="12.5546875" customWidth="1"/>
+    <col min="26" max="26" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -818,7 +856,7 @@
       <c r="L1" s="9"/>
       <c r="O1" s="13"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -870,26 +908,32 @@
       <c r="Q2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="S2" s="17" t="s">
-        <v>0</v>
+      <c r="R2" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="T2" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="U2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="U2" s="17" t="s">
+      <c r="V2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="V2" s="17" t="s">
+      <c r="W2" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="W2" s="17" t="s">
+      <c r="X2" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="X2" s="18" t="s">
+      <c r="Y2" s="18" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Z2" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>1994</v>
       </c>
@@ -942,26 +986,32 @@
       <c r="Q3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="S3" s="17">
+      <c r="R3" s="15">
+        <v>0</v>
+      </c>
+      <c r="T3" s="17">
         <v>1994</v>
       </c>
-      <c r="T3" s="19">
+      <c r="U3" s="19">
         <v>93</v>
       </c>
-      <c r="U3" s="20">
-        <v>0</v>
-      </c>
-      <c r="V3" s="21">
-        <v>0</v>
-      </c>
-      <c r="W3" s="20">
+      <c r="V3" s="20">
+        <v>0</v>
+      </c>
+      <c r="W3" s="21">
         <v>0</v>
       </c>
       <c r="X3" s="20">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y3" s="20">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>1995</v>
       </c>
@@ -1014,26 +1064,32 @@
       <c r="Q4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="S4" s="17">
+      <c r="R4" s="15">
+        <v>0</v>
+      </c>
+      <c r="T4" s="17">
         <v>1995</v>
       </c>
-      <c r="T4" s="19">
+      <c r="U4" s="19">
         <v>74</v>
       </c>
-      <c r="U4" s="20">
-        <v>0</v>
-      </c>
-      <c r="V4" s="21">
-        <v>0</v>
-      </c>
-      <c r="W4" s="20">
+      <c r="V4" s="20">
+        <v>0</v>
+      </c>
+      <c r="W4" s="21">
         <v>0</v>
       </c>
       <c r="X4" s="20">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y4" s="20">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>1996</v>
       </c>
@@ -1086,26 +1142,32 @@
       <c r="Q5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="S5" s="17">
+      <c r="R5" s="15">
+        <v>0</v>
+      </c>
+      <c r="T5" s="17">
         <v>1996</v>
       </c>
-      <c r="T5" s="19">
+      <c r="U5" s="19">
         <v>94</v>
       </c>
-      <c r="U5" s="20">
-        <v>0</v>
-      </c>
-      <c r="V5" s="21">
-        <v>0</v>
-      </c>
-      <c r="W5" s="20">
+      <c r="V5" s="20">
+        <v>0</v>
+      </c>
+      <c r="W5" s="21">
         <v>0</v>
       </c>
       <c r="X5" s="20">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y5" s="20">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>1997</v>
       </c>
@@ -1158,26 +1220,32 @@
       <c r="Q6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="S6" s="17">
+      <c r="R6" s="15">
+        <v>0</v>
+      </c>
+      <c r="T6" s="17">
         <v>1997</v>
       </c>
-      <c r="T6" s="19">
+      <c r="U6" s="19">
         <v>118</v>
       </c>
-      <c r="U6" s="20">
-        <v>0</v>
-      </c>
-      <c r="V6" s="21">
-        <v>0</v>
-      </c>
-      <c r="W6" s="20">
+      <c r="V6" s="20">
+        <v>0</v>
+      </c>
+      <c r="W6" s="21">
         <v>0</v>
       </c>
       <c r="X6" s="20">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y6" s="20">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>1998</v>
       </c>
@@ -1230,26 +1298,32 @@
       <c r="Q7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="S7" s="17">
+      <c r="R7" s="15">
+        <v>0</v>
+      </c>
+      <c r="T7" s="17">
         <v>1998</v>
       </c>
-      <c r="T7" s="19">
+      <c r="U7" s="19">
         <v>155</v>
       </c>
-      <c r="U7" s="20">
-        <v>0</v>
-      </c>
-      <c r="V7" s="21">
-        <v>0</v>
-      </c>
-      <c r="W7" s="20">
+      <c r="V7" s="20">
+        <v>0</v>
+      </c>
+      <c r="W7" s="21">
         <v>0</v>
       </c>
       <c r="X7" s="20">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y7" s="20">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>1999</v>
       </c>
@@ -1302,26 +1376,32 @@
       <c r="Q8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="S8" s="17">
+      <c r="R8" s="15">
+        <v>0</v>
+      </c>
+      <c r="T8" s="17">
         <v>1999</v>
       </c>
-      <c r="T8" s="19">
+      <c r="U8" s="19">
         <v>203</v>
       </c>
-      <c r="U8" s="20">
-        <v>0</v>
-      </c>
-      <c r="V8" s="21">
-        <v>0</v>
-      </c>
-      <c r="W8" s="20">
+      <c r="V8" s="20">
+        <v>0</v>
+      </c>
+      <c r="W8" s="21">
         <v>0</v>
       </c>
       <c r="X8" s="20">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y8" s="20">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>2000</v>
       </c>
@@ -1374,26 +1454,32 @@
       <c r="Q9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="S9" s="17">
+      <c r="R9" s="15">
+        <v>0</v>
+      </c>
+      <c r="T9" s="17">
         <v>2000</v>
       </c>
-      <c r="T9" s="19">
+      <c r="U9" s="19">
         <v>413</v>
       </c>
-      <c r="U9" s="20">
-        <v>0</v>
-      </c>
-      <c r="V9" s="21">
-        <v>0</v>
-      </c>
-      <c r="W9" s="20">
+      <c r="V9" s="20">
+        <v>0</v>
+      </c>
+      <c r="W9" s="21">
         <v>0</v>
       </c>
       <c r="X9" s="20">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y9" s="20">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>2001</v>
       </c>
@@ -1446,26 +1532,32 @@
       <c r="Q10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="S10" s="17">
+      <c r="R10" s="15">
+        <v>0</v>
+      </c>
+      <c r="T10" s="17">
         <v>2001</v>
       </c>
-      <c r="T10" s="19">
+      <c r="U10" s="19">
         <v>1055</v>
       </c>
-      <c r="U10" s="20">
-        <v>0</v>
-      </c>
-      <c r="V10" s="21">
-        <v>0</v>
-      </c>
-      <c r="W10" s="20">
+      <c r="V10" s="20">
+        <v>0</v>
+      </c>
+      <c r="W10" s="21">
         <v>0</v>
       </c>
       <c r="X10" s="20">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y10" s="20">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>2002</v>
       </c>
@@ -1518,26 +1610,32 @@
       <c r="Q11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="S11" s="17">
+      <c r="R11" s="15">
+        <v>0</v>
+      </c>
+      <c r="T11" s="17">
         <v>2002</v>
       </c>
-      <c r="T11" s="19">
+      <c r="U11" s="19">
         <v>1434</v>
       </c>
-      <c r="U11" s="20">
-        <v>0</v>
-      </c>
-      <c r="V11" s="21">
-        <v>0</v>
-      </c>
-      <c r="W11" s="20">
+      <c r="V11" s="20">
+        <v>0</v>
+      </c>
+      <c r="W11" s="21">
         <v>0</v>
       </c>
       <c r="X11" s="20">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y11" s="20">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>2003</v>
       </c>
@@ -1590,26 +1688,32 @@
       <c r="Q12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="S12" s="17">
+      <c r="R12" s="15">
+        <v>0</v>
+      </c>
+      <c r="T12" s="17">
         <v>2003</v>
       </c>
-      <c r="T12" s="19">
+      <c r="U12" s="19">
         <v>1848</v>
       </c>
-      <c r="U12" s="20">
-        <v>0</v>
-      </c>
-      <c r="V12" s="21">
-        <v>0</v>
-      </c>
-      <c r="W12" s="20">
+      <c r="V12" s="20">
+        <v>0</v>
+      </c>
+      <c r="W12" s="21">
         <v>0</v>
       </c>
       <c r="X12" s="20">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y12" s="20">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>2004</v>
       </c>
@@ -1662,26 +1766,32 @@
       <c r="Q13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="S13" s="17">
+      <c r="R13" s="15">
+        <v>0</v>
+      </c>
+      <c r="T13" s="17">
         <v>2004</v>
       </c>
-      <c r="T13" s="19">
+      <c r="U13" s="19">
         <v>3451</v>
       </c>
-      <c r="U13" s="20">
-        <v>0</v>
-      </c>
-      <c r="V13" s="21">
-        <v>0</v>
-      </c>
-      <c r="W13" s="20">
+      <c r="V13" s="20">
+        <v>0</v>
+      </c>
+      <c r="W13" s="21">
         <v>0</v>
       </c>
       <c r="X13" s="20">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y13" s="20">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>2005</v>
       </c>
@@ -1734,26 +1844,32 @@
       <c r="Q14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="S14" s="17">
+      <c r="R14" s="15">
+        <v>0</v>
+      </c>
+      <c r="T14" s="17">
         <v>2005</v>
       </c>
-      <c r="T14" s="19">
+      <c r="U14" s="19">
         <v>8895</v>
       </c>
-      <c r="U14" s="20">
-        <v>0</v>
-      </c>
-      <c r="V14" s="21">
-        <v>0</v>
-      </c>
-      <c r="W14" s="20">
+      <c r="V14" s="20">
+        <v>0</v>
+      </c>
+      <c r="W14" s="21">
         <v>0</v>
       </c>
       <c r="X14" s="20">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y14" s="20">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>2006</v>
       </c>
@@ -1806,26 +1922,32 @@
       <c r="Q15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="S15" s="17">
+      <c r="R15" s="15">
+        <v>0</v>
+      </c>
+      <c r="T15" s="17">
         <v>2006</v>
       </c>
-      <c r="T15" s="19">
+      <c r="U15" s="19">
         <v>17733</v>
       </c>
-      <c r="U15" s="20">
-        <v>0</v>
-      </c>
-      <c r="V15" s="21">
-        <v>0</v>
-      </c>
-      <c r="W15" s="20">
+      <c r="V15" s="20">
+        <v>0</v>
+      </c>
+      <c r="W15" s="21">
         <v>0</v>
       </c>
       <c r="X15" s="20">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y15" s="20">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>2007</v>
       </c>
@@ -1878,26 +2000,32 @@
       <c r="Q16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="S16" s="17">
+      <c r="R16" s="15">
+        <v>0</v>
+      </c>
+      <c r="T16" s="17">
         <v>2007</v>
       </c>
-      <c r="T16" s="19">
+      <c r="U16" s="19">
         <v>33265</v>
       </c>
-      <c r="U16" s="20">
-        <v>0</v>
-      </c>
-      <c r="V16" s="21">
-        <v>0</v>
-      </c>
-      <c r="W16" s="20">
+      <c r="V16" s="20">
+        <v>0</v>
+      </c>
+      <c r="W16" s="21">
         <v>0</v>
       </c>
       <c r="X16" s="20">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y16" s="20">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>2008</v>
       </c>
@@ -1950,26 +2078,32 @@
       <c r="Q17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="S17" s="17">
+      <c r="R17" s="15">
+        <v>0</v>
+      </c>
+      <c r="T17" s="17">
         <v>2008</v>
       </c>
-      <c r="T17" s="19">
+      <c r="U17" s="19">
         <v>48379</v>
       </c>
-      <c r="U17" s="20">
-        <v>0</v>
-      </c>
-      <c r="V17" s="21">
-        <v>0</v>
-      </c>
-      <c r="W17" s="20">
+      <c r="V17" s="20">
+        <v>0</v>
+      </c>
+      <c r="W17" s="21">
         <v>0</v>
       </c>
       <c r="X17" s="20">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y17" s="20">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>2009</v>
       </c>
@@ -2022,26 +2156,32 @@
       <c r="Q18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="S18" s="17">
+      <c r="R18" s="15">
+        <v>0</v>
+      </c>
+      <c r="T18" s="17">
         <v>2009</v>
       </c>
-      <c r="T18" s="19">
+      <c r="U18" s="19">
         <v>62812</v>
       </c>
-      <c r="U18" s="20">
-        <v>0</v>
-      </c>
-      <c r="V18" s="21">
-        <v>0</v>
-      </c>
-      <c r="W18" s="20">
+      <c r="V18" s="20">
+        <v>0</v>
+      </c>
+      <c r="W18" s="21">
         <v>0</v>
       </c>
       <c r="X18" s="20">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y18" s="20">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>2010</v>
       </c>
@@ -2096,26 +2236,32 @@
       <c r="Q19" s="1">
         <v>541</v>
       </c>
-      <c r="S19" s="17">
+      <c r="R19" s="15">
+        <v>0</v>
+      </c>
+      <c r="T19" s="17">
         <v>2010</v>
       </c>
-      <c r="T19" s="19">
+      <c r="U19" s="19">
         <v>83930</v>
       </c>
-      <c r="U19" s="17">
+      <c r="V19" s="17">
         <v>980</v>
       </c>
-      <c r="V19" s="21">
-        <v>0</v>
-      </c>
-      <c r="W19" s="20">
-        <v>0</v>
-      </c>
-      <c r="X19" s="18">
+      <c r="W19" s="28">
+        <v>0</v>
+      </c>
+      <c r="X19" s="29">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="18">
         <v>541</v>
       </c>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Z19" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>2011</v>
       </c>
@@ -2172,26 +2318,32 @@
       <c r="Q20" s="1">
         <v>2154</v>
       </c>
-      <c r="S20" s="17">
+      <c r="R20" s="15">
+        <v>0</v>
+      </c>
+      <c r="T20" s="17">
         <v>2011</v>
       </c>
-      <c r="T20" s="19">
+      <c r="U20" s="19">
         <v>105188</v>
       </c>
-      <c r="U20" s="17">
+      <c r="V20" s="17">
         <v>4312</v>
       </c>
-      <c r="V20" s="21">
-        <v>0</v>
-      </c>
-      <c r="W20" s="17">
+      <c r="W20" s="28">
+        <v>0</v>
+      </c>
+      <c r="X20" s="17">
         <v>12610</v>
       </c>
-      <c r="X20" s="18">
+      <c r="Y20" s="18">
         <v>2154</v>
       </c>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Z20" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>2012</v>
       </c>
@@ -2248,26 +2400,32 @@
       <c r="Q21" s="1">
         <v>3364</v>
       </c>
-      <c r="S21" s="17">
+      <c r="R21" s="2">
+        <v>9905</v>
+      </c>
+      <c r="T21" s="17">
         <v>2012</v>
       </c>
-      <c r="T21" s="19">
+      <c r="U21" s="19">
         <v>129651</v>
       </c>
-      <c r="U21" s="17">
+      <c r="V21" s="17">
         <v>9980</v>
       </c>
-      <c r="V21" s="21">
-        <v>0</v>
-      </c>
-      <c r="W21" s="17">
+      <c r="W21" s="28">
+        <v>0</v>
+      </c>
+      <c r="X21" s="17">
         <v>26080</v>
       </c>
-      <c r="X21" s="18">
+      <c r="Y21" s="18">
         <v>3364</v>
       </c>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Z21" s="2">
+        <v>9905</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>2013</v>
       </c>
@@ -2324,26 +2482,32 @@
       <c r="Q22" s="1">
         <v>6051</v>
       </c>
-      <c r="S22" s="17">
+      <c r="R22" s="2">
+        <v>20369</v>
+      </c>
+      <c r="T22" s="17">
         <v>2013</v>
       </c>
-      <c r="T22" s="19">
+      <c r="U22" s="19">
         <v>160024</v>
       </c>
-      <c r="U22" s="17">
+      <c r="V22" s="17">
         <v>15420</v>
       </c>
-      <c r="V22" s="19">
+      <c r="W22" s="19">
         <v>1469</v>
       </c>
-      <c r="W22" s="17">
+      <c r="X22" s="17">
         <v>40840</v>
       </c>
-      <c r="X22" s="18">
+      <c r="Y22" s="18">
         <v>7436</v>
       </c>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Z22" s="2">
+        <v>20369</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>2014</v>
       </c>
@@ -2400,26 +2564,32 @@
       <c r="Q23" s="1">
         <v>8522</v>
       </c>
-      <c r="S23" s="17">
+      <c r="R23" s="2">
+        <v>44769</v>
+      </c>
+      <c r="T23" s="17">
         <v>2014</v>
       </c>
-      <c r="T23" s="19">
+      <c r="U23" s="19">
         <v>204527</v>
       </c>
-      <c r="U23" s="17">
+      <c r="V23" s="17">
         <v>16654</v>
       </c>
-      <c r="V23" s="19">
+      <c r="W23" s="19">
         <v>2152</v>
       </c>
-      <c r="W23" s="17">
+      <c r="X23" s="17">
         <v>56950</v>
       </c>
-      <c r="X23" s="18">
+      <c r="Y23" s="18">
         <v>13049</v>
       </c>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Z23" s="2">
+        <v>44769</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>2015</v>
       </c>
@@ -2476,26 +2646,32 @@
       <c r="Q24" s="1">
         <v>12363</v>
       </c>
-      <c r="S24" s="17">
+      <c r="R24" s="2">
+        <v>85448</v>
+      </c>
+      <c r="T24" s="17">
         <v>2015</v>
       </c>
-      <c r="T24" s="19">
+      <c r="U24" s="19">
         <v>269897</v>
       </c>
-      <c r="U24" s="17">
+      <c r="V24" s="17">
         <v>28720</v>
       </c>
-      <c r="V24" s="19">
+      <c r="W24" s="19">
         <v>3133</v>
       </c>
-      <c r="W24" s="17">
+      <c r="X24" s="17">
         <v>67420</v>
       </c>
-      <c r="X24" s="18">
+      <c r="Y24" s="18">
         <v>23464</v>
       </c>
-    </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Z24" s="2">
+        <v>85448</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>2016</v>
       </c>
@@ -2552,26 +2728,32 @@
       <c r="Q25" s="1">
         <v>11410</v>
       </c>
-      <c r="S25" s="17">
+      <c r="R25" s="2">
+        <v>135509</v>
+      </c>
+      <c r="T25" s="17">
         <v>2016</v>
       </c>
-      <c r="T25" s="19">
+      <c r="U25" s="19">
         <v>352230</v>
       </c>
-      <c r="U25" s="17">
+      <c r="V25" s="17">
         <v>33774</v>
       </c>
-      <c r="V25" s="19">
+      <c r="W25" s="19">
         <v>4748</v>
       </c>
-      <c r="W25" s="17">
+      <c r="X25" s="17">
         <v>82720</v>
       </c>
-      <c r="X25" s="18">
+      <c r="Y25" s="18">
         <v>25154</v>
       </c>
-    </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Z25" s="2">
+        <v>135509</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>2017</v>
       </c>
@@ -2628,26 +2810,32 @@
       <c r="Q26" s="1">
         <v>25056</v>
       </c>
-      <c r="S26" s="17">
+      <c r="R26" s="2">
+        <v>209122</v>
+      </c>
+      <c r="T26" s="17">
         <v>2017</v>
       </c>
-      <c r="T26" s="19">
+      <c r="U26" s="19">
         <v>460192</v>
       </c>
-      <c r="U26" s="17">
+      <c r="V26" s="17">
         <v>42797</v>
       </c>
-      <c r="V26" s="19">
+      <c r="W26" s="19">
         <v>8611</v>
       </c>
-      <c r="W26" s="17">
+      <c r="X26" s="17">
         <v>100810</v>
       </c>
-      <c r="X26" s="18">
+      <c r="Y26" s="18">
         <v>54492</v>
       </c>
-    </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Z26" s="2">
+        <v>209122</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>2018</v>
       </c>
@@ -2704,26 +2892,32 @@
       <c r="Q27" s="1">
         <v>36062</v>
       </c>
-      <c r="S27" s="17">
+      <c r="R27" s="2">
+        <v>296214</v>
+      </c>
+      <c r="T27" s="17">
         <v>2018</v>
       </c>
-      <c r="T27" s="19">
+      <c r="U27" s="19">
         <v>592177</v>
       </c>
-      <c r="U27" s="17">
+      <c r="V27" s="17">
         <v>53745</v>
       </c>
-      <c r="V27" s="19">
+      <c r="W27" s="19">
         <v>13882</v>
       </c>
-      <c r="W27" s="17">
+      <c r="X27" s="17">
         <v>127340</v>
       </c>
-      <c r="X27" s="18">
+      <c r="Y27" s="18">
         <v>67504</v>
       </c>
-    </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Z27" s="2">
+        <v>296214</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>2019</v>
       </c>
@@ -2780,26 +2974,32 @@
       <c r="Q28" s="1">
         <v>63281</v>
       </c>
-      <c r="S28" s="17">
+      <c r="R28" s="2">
+        <v>384066</v>
+      </c>
+      <c r="T28" s="17">
         <v>2019</v>
       </c>
-      <c r="T28" s="19">
+      <c r="U28" s="19">
         <v>754636</v>
       </c>
-      <c r="U28" s="17">
+      <c r="V28" s="17">
         <v>69466</v>
       </c>
-      <c r="V28" s="19">
+      <c r="W28" s="19">
         <v>12293</v>
       </c>
-      <c r="W28" s="17">
+      <c r="X28" s="17">
         <v>148620</v>
       </c>
-      <c r="X28" s="18">
+      <c r="Y28" s="18">
         <v>108629</v>
       </c>
-    </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Z28" s="2">
+        <v>384066</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>2020</v>
       </c>
@@ -2856,26 +3056,32 @@
       <c r="Q29" s="1">
         <v>194163</v>
       </c>
-      <c r="S29" s="17">
+      <c r="R29" s="2">
+        <v>489779</v>
+      </c>
+      <c r="T29" s="17">
         <v>2020</v>
       </c>
-      <c r="T29" s="19">
+      <c r="U29" s="19">
         <v>1060158</v>
       </c>
-      <c r="U29" s="17">
+      <c r="V29" s="17">
         <v>194881</v>
       </c>
-      <c r="V29" s="19">
+      <c r="W29" s="19">
         <v>20156</v>
       </c>
-      <c r="W29" s="17">
+      <c r="X29" s="17">
         <v>163190</v>
       </c>
-      <c r="X29" s="18">
+      <c r="Y29" s="18">
         <v>394632</v>
       </c>
-    </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Z29" s="2">
+        <v>489779</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>2021</v>
       </c>
@@ -2928,26 +3134,32 @@
       <c r="Q30" s="1">
         <v>355961</v>
       </c>
-      <c r="S30" s="17">
+      <c r="R30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="T30" s="17">
         <v>2021</v>
       </c>
-      <c r="T30" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="U30" s="17">
+      <c r="U30" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="V30" s="17">
         <v>315978</v>
       </c>
-      <c r="V30" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="W30" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="X30" s="18">
+      <c r="W30" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="X30" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y30" s="18">
         <v>681410</v>
       </c>
-    </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Z30" s="26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>6</v>
       </c>
@@ -2955,7 +3167,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>10</v>
       </c>
@@ -3012,6 +3224,14 @@
       </c>
       <c r="B38" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>36</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
